--- a/bots/crawl_ch/output/bread_coop_2023-02-07.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-02-07.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -2600,7 +2600,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -2815,31 +2815,31 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6627621</t>
+          <t>5620342</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Blätterteig ausgewallt</t>
+          <t>Betty Bossi Pizzateig</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-naturaplan-bio-blaetterteig-ausgewallt/p/6627621</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pizzateig/p/5620342</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="E35" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2848,12 +2848,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.75/100g</t>
+          <t>0.46/100g</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2873,46 +2873,46 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Blätterteig ausgewallt 2.40 Schweizer Franken</t>
+          <t>Betty Bossi Pizzateig 3.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5620342</t>
+          <t>6627621</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Betty Bossi Pizzateig</t>
+          <t>Betty Bossi Naturaplan Bio Blätterteig ausgewallt</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pizzateig/p/5620342</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-naturaplan-bio-blaetterteig-ausgewallt/p/6627621</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E36" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2921,12 +2921,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.46/100g</t>
+          <t>0.75/100g</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2946,22 +2946,22 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Betty Bossi Pizzateig 3.70 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Blätterteig ausgewallt 2.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -3322,7 +3322,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3456,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -3955,7 +3955,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -4097,7 +4097,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -4170,7 +4170,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -4312,7 +4312,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -4381,7 +4381,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -4454,7 +4454,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -4592,7 +4592,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -4734,7 +4734,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -4945,7 +4945,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -5018,7 +5018,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -5164,7 +5164,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5306,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -5375,7 +5375,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -5659,7 +5659,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -5732,7 +5732,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5801,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -5870,7 +5870,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -6012,7 +6012,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6081,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -6154,7 +6154,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -6223,7 +6223,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -6292,7 +6292,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -6365,7 +6365,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -6434,7 +6434,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6576,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -6722,7 +6722,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -6795,7 +6795,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -6864,7 +6864,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -7006,7 +7006,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -7148,7 +7148,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -7217,7 +7217,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -7286,7 +7286,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -7355,7 +7355,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -7428,7 +7428,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -7497,7 +7497,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -7635,7 +7635,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -7708,7 +7708,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -7781,7 +7781,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -7854,7 +7854,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -7923,7 +7923,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -7996,7 +7996,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -8142,7 +8142,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -8211,7 +8211,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -8284,7 +8284,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -8353,7 +8353,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -8426,7 +8426,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -8499,7 +8499,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -8568,7 +8568,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -8706,7 +8706,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -8775,7 +8775,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -8844,7 +8844,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -8917,7 +8917,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -8986,7 +8986,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -9128,7 +9128,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -9201,7 +9201,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -9274,7 +9274,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -9347,7 +9347,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -9416,7 +9416,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -9489,7 +9489,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -9562,7 +9562,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -9631,7 +9631,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -9700,7 +9700,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -9769,7 +9769,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -9911,7 +9911,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -9980,45 +9980,45 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>3410121</t>
+          <t>5650918</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Kirsprolls Vollkorn-Schwedenbrötchen</t>
+          <t>Leisi Blätterteig Rustica rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/kirsprolls-vollkorn-schwedenbroetchen/p/3410121</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-rustica-rund-ausgewallt-32cm/p/5650918</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E136" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Krisprolls</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>1.31/100g</t>
+          <t>1.48/100g</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10028,7 +10028,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -10038,60 +10038,60 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>Kirsprolls Vollkorn-Schwedenbrötchen 2.95 Schweizer Franken</t>
+          <t>Leisi Blätterteig Rustica rund ausgewallt Ø32cm 20% ab 2 Aktion 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>5650918</t>
+          <t>4950628</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig Rustica rund ausgewallt Ø32cm</t>
+          <t>Dar-Vida Sandwich Schokolade &amp;amp; Haselnusscrème</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-rustica-rund-ausgewallt-32cm/p/5650918</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-sandwich-schokolade-haselnusscreme/p/4950628</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E137" t="n">
         <v>4.5</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>1.48/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -10111,60 +10111,60 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig Rustica rund ausgewallt Ø32cm 20% ab 2 Aktion 3.40 Schweizer Franken</t>
+          <t>Dar-Vida Sandwich Schokolade &amp;amp; Haselnusscrème 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>6962219</t>
+          <t>3410121</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Old el Paso Wraps Whole Wheats</t>
+          <t>Kirsprolls Vollkorn-Schwedenbrötchen</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-wraps-whole-wheats/p/6962219</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/kirsprolls-vollkorn-schwedenbroetchen/p/3410121</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Krisprolls</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>1.70/100g</t>
+          <t>1.31/100g</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10174,7 +10174,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -10184,56 +10184,60 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>Old el Paso Wraps Whole Wheats 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N138" t="inlineStr"/>
+          <t>Kirsprolls Vollkorn-Schwedenbrötchen 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>4950628</t>
+          <t>6962219</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Dar-Vida Sandwich Schokolade &amp;amp; Haselnusscrème</t>
+          <t>Old el Paso Wraps Whole Wheats</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-sandwich-schokolade-haselnusscreme/p/4950628</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-wraps-whole-wheats/p/6962219</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>1.70/100g</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -10243,7 +10247,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -10253,22 +10257,18 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>Dar-Vida Sandwich Schokolade &amp;amp; Haselnusscrème 5.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N139" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Old el Paso Wraps Whole Wheats 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -10341,7 +10341,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -10410,7 +10410,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -10556,45 +10556,45 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>6877241</t>
+          <t>6345143</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Mais Tortillas</t>
+          <t>Dar-Vida Simply Sesame</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mais-tortillas/p/6877241</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-simply-sesame/p/6345143</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>MASAMOR</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2.38/100g</t>
+          <t>2.25/100g</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -10604,7 +10604,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -10614,60 +10614,56 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>Mais Tortillas 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N144" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Dar-Vida Simply Sesame 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>6345143</t>
+          <t>6877241</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Dar-Vida Simply Sesame</t>
+          <t>Mais Tortillas</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-simply-sesame/p/6345143</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mais-tortillas/p/6877241</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E145" t="n">
         <v>5</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>MASAMOR</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2.25/100g</t>
+          <t>2.38/100g</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10677,7 +10673,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -10687,18 +10683,22 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>Dar-Vida Simply Sesame 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N145" t="inlineStr"/>
+          <t>Mais Tortillas 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -10767,7 +10767,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -10840,7 +10840,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -10913,7 +10913,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -10982,7 +10982,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -11051,7 +11051,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -11124,7 +11124,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -11197,7 +11197,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -11266,45 +11266,45 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>3040623</t>
+          <t>3584194</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Hug Zwieback ohne Zucker 250g</t>
+          <t>Fine Food Zuger Kirschtorte</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-ohne-zucker-250g/p/3040623</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fine-food-zuger-kirschtorte/p/3584194</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="E154" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>1.86/100g</t>
+          <t>4.83/100g</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -11314,7 +11314,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -11324,42 +11324,46 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>Hug Zwieback ohne Zucker 250g 4.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N154" t="inlineStr"/>
+          <t>Fine Food Zuger Kirschtorte 14.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>3584194</t>
+          <t>6825791</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Fine Food Zuger Kirschtorte</t>
+          <t>Prix Garantie Proteinbrot</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fine-food-zuger-kirschtorte/p/3584194</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/prix-garantie-proteinbrot/p/6825791</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="E155" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -11368,12 +11372,12 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>4.83/100g</t>
+          <t>1.00/100g</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -11383,7 +11387,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -11393,60 +11397,60 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>Fine Food Zuger Kirschtorte 14.50 Schweizer Franken</t>
+          <t>Prix Garantie Proteinbrot 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>6825791</t>
+          <t>5719276</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Prix Garantie Proteinbrot</t>
+          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/prix-garantie-proteinbrot/p/6825791</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-cracker-chia-quinoa/p/5719276</t>
         </is>
       </c>
       <c r="D156" t="n">
         <v>26</v>
       </c>
       <c r="E156" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>1.00/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -11456,7 +11460,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -11466,12 +11470,12 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>Prix Garantie Proteinbrot 2.50 Schweizer Franken</t>
+          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
@@ -11481,45 +11485,45 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>6036925</t>
+          <t>4864690</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig 5-Korn Rund Ausgewallt Ø24cm</t>
+          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-5-korn-rund-ausgewallt-24cm/p/6036925</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-30-fett-rund-ausgewallt-32cm/p/4864690</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E157" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>1.61/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -11529,7 +11533,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -11544,7 +11548,7 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig 5-Korn Rund Ausgewallt Ø24cm 20% ab 2 Aktion 4.50 Schweizer Franken</t>
+          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm 20% ab 2 Aktion 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
@@ -11554,45 +11558,45 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>6435446</t>
+          <t>6036925</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Prix Garantie Yeah! 5 Stück</t>
+          <t>Buitoni Pizzateig 5-Korn Rund Ausgewallt Ø24cm</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-yeah-5-stueck/p/6435446</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-5-korn-rund-ausgewallt-24cm/p/6036925</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E158" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>1.56/100g</t>
+          <t>1.61/100g</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -11602,7 +11606,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -11612,56 +11616,60 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>Prix Garantie Yeah! 5 Stück 2.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N158" t="inlineStr"/>
+          <t>Buitoni Pizzateig 5-Korn Rund Ausgewallt Ø24cm 20% ab 2 Aktion 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>5719276</t>
+          <t>3040623</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa</t>
+          <t>Hug Zwieback ohne Zucker 250g</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-cracker-chia-quinoa/p/5719276</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-ohne-zucker-250g/p/3040623</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>1.86/100g</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -11671,7 +11679,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -11681,43 +11689,39 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Hug Zwieback ohne Zucker 250g 4.65 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>6099147</t>
+          <t>6435446</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Aprikosen-Törtli</t>
+          <t>Prix Garantie Yeah! 5 Stück</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosen-toertli/p/6099147</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-yeah-5-stueck/p/6435446</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E160" t="n">
         <v>4.5</v>
@@ -11729,12 +11733,12 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>1.87/100g</t>
+          <t>1.56/100g</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -11744,7 +11748,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -11759,193 +11763,189 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>Aprikosen-Törtli 1.40 Schweizer Franken</t>
+          <t>Prix Garantie Yeah! 5 Stück 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>4314837</t>
+          <t>6099147</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Kale Dürüm 30cm 18 Stück</t>
+          <t>Aprikosen-Törtli</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/kale-dueruem-30cm-18-stueck/p/4314837</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosen-toertli/p/6099147</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E161" t="n">
         <v>4.5</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Kale</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>4.39/1kg</t>
+          <t>1.87/100g</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>Kale Dürüm 30cm 18 Stück 7.50 Schweizer Franken</t>
+          <t>Aprikosen-Törtli 1.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>4864690</t>
+          <t>4314837</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm</t>
+          <t>Kale Dürüm 30cm 18 Stück</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-30-fett-rund-ausgewallt-32cm/p/4864690</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/kale-dueruem-30cm-18-stueck/p/4314837</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E162" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Kale</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>4.39/1kg</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm 20% ab 2 Aktion 3.25 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N162" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Kale Dürüm 30cm 18 Stück 7.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>6117087</t>
+          <t>4145230</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla glutenfrei 6 Stück</t>
+          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-glutenfrei-6-stueck/p/6117087</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-milchschokolade-2x45g/p/4145230</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E163" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>3.28/100g</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -11955,7 +11955,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -11965,12 +11965,12 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla glutenfrei 6 Stück 5.95 Schweizer Franken</t>
+          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
@@ -11980,31 +11980,31 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>4145230</t>
+          <t>6102963</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g</t>
+          <t>Naturaplan Bio Bündner Nusstorte</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-milchschokolade-2x45g/p/4145230</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-buendner-nusstorte/p/6102963</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E164" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -12013,12 +12013,12 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>3.28/100g</t>
+          <t>2.38/100g</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -12038,60 +12038,56 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Bündner Nusstorte 20% Aktion 7.15 Schweizer Franken statt 8.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>6102963</t>
+          <t>6117087</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bündner Nusstorte</t>
+          <t>Old El Paso Tortilla glutenfrei 6 Stück</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-buendner-nusstorte/p/6102963</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-glutenfrei-6-stueck/p/6117087</t>
         </is>
       </c>
       <c r="D165" t="n">
         <v>27</v>
       </c>
       <c r="E165" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2.38/100g</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -12101,7 +12097,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -12111,18 +12107,22 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bündner Nusstorte 20% Aktion 7.15 Schweizer Franken statt 8.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N165" t="inlineStr"/>
+          <t>Old El Paso Tortilla glutenfrei 6 Stück 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -12191,7 +12191,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -12260,7 +12260,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -12329,7 +12329,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -12398,7 +12398,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -12467,7 +12467,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -12536,7 +12536,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -12605,7 +12605,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -12674,7 +12674,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -12743,7 +12743,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -12816,7 +12816,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -12885,31 +12885,31 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>6668455</t>
+          <t>7031403</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig -35% Fett</t>
+          <t>Betty Bossi Dinkel Blätterteig eckig</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-35-fett/p/6668455</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-dinkel-blaetterteig-eckig/p/7031403</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E177" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -12918,12 +12918,12 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>0.78/100g</t>
+          <t>1.09/100g</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -12933,7 +12933,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -12943,12 +12943,12 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig -35% Fett 2.10 Schweizer Franken</t>
+          <t>Betty Bossi Dinkel Blätterteig eckig 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
@@ -12958,7 +12958,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -13031,31 +13031,31 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>7031403</t>
+          <t>6668455</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel Blätterteig eckig</t>
+          <t>Betty Bossi Kuchenteig -35% Fett</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-dinkel-blaetterteig-eckig/p/7031403</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-35-fett/p/6668455</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E179" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -13064,12 +13064,12 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>1.09/100g</t>
+          <t>0.78/100g</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13079,7 +13079,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -13089,12 +13089,12 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel Blätterteig eckig 3.50 Schweizer Franken</t>
+          <t>Betty Bossi Kuchenteig -35% Fett 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
@@ -13104,7 +13104,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -13173,7 +13173,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -13242,7 +13242,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -13311,7 +13311,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -13382,7 +13382,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -13455,45 +13455,45 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>5989712</t>
+          <t>5747253</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot glutenfrei</t>
+          <t>Pasquier Pitch Choco Barre Lait</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-glutenfrei/p/5989712</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pitch-choco-barre-lait/p/5747253</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13503,7 +13503,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -13513,56 +13513,56 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot glutenfrei 4.50 Schweizer Franken</t>
+          <t>Pasquier Pitch Choco Barre Lait 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>5747253</t>
+          <t>5989712</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Choco Barre Lait</t>
+          <t>Wasa Knäckebrot glutenfrei</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pitch-choco-barre-lait/p/5747253</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-glutenfrei/p/5989712</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E186" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13572,7 +13572,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -13582,18 +13582,18 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Choco Barre Lait 5.20 Schweizer Franken</t>
+          <t>Wasa Knäckebrot glutenfrei 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -13662,7 +13662,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -13735,7 +13735,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -13804,7 +13804,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -13873,7 +13873,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -13942,7 +13942,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -14015,7 +14015,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -14088,31 +14088,31 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>6564543</t>
+          <t>6726288</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Country Cracker Käse</t>
+          <t>Karma Snack Linsen &amp;amp; Kichererbsen</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-kaese/p/6564543</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/karma-snack-linsen-kichererbsen/p/6726288</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E194" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -14121,12 +14121,12 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>2.79/100g</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -14136,7 +14136,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -14151,38 +14151,42 @@
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>Country Cracker Käse 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N194" t="inlineStr"/>
+          <t>Karma Snack Linsen &amp;amp; Kichererbsen 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>6726288</t>
+          <t>6564543</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Karma Snack Linsen &amp;amp; Kichererbsen</t>
+          <t>Country Cracker Käse</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/karma-snack-linsen-kichererbsen/p/6726288</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-kaese/p/6564543</t>
         </is>
       </c>
       <c r="D195" t="n">
+        <v>5</v>
+      </c>
+      <c r="E195" t="n">
         <v>4</v>
       </c>
-      <c r="E195" t="n">
-        <v>4.5</v>
-      </c>
       <c r="F195" t="inlineStr">
         <is>
           <t>Coop</t>
@@ -14190,12 +14194,12 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2.79/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -14205,7 +14209,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -14220,17 +14224,13 @@
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>Karma Snack Linsen &amp;amp; Kichererbsen 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N195" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Country Cracker Käse 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -14299,7 +14299,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -14368,7 +14368,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -14441,7 +14441,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -14510,45 +14510,45 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>6723241</t>
+          <t>6345667</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla XL Glutenfree 4 Stück</t>
+          <t>Indian Delight Plain Naan Bread</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-xl-glutenfree-4-stueck/p/6723241</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-plain-naan-bread/p/6345667</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E200" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>3.02/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -14558,7 +14558,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -14568,22 +14568,22 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla XL Glutenfree 4 Stück 6.50 Schweizer Franken</t>
+          <t>Indian Delight Plain Naan Bread 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>['vegetarian', 'gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -14650,45 +14650,45 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>6345667</t>
+          <t>6723241</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Indian Delight Plain Naan Bread</t>
+          <t>Old el Paso Tortilla XL Glutenfree 4 Stück</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-plain-naan-bread/p/6345667</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-xl-glutenfree-4-stueck/p/6723241</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E202" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>3.02/100g</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -14698,7 +14698,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -14708,60 +14708,60 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>Indian Delight Plain Naan Bread 4.60 Schweizer Franken</t>
+          <t>Old el Paso Tortilla XL Glutenfree 4 Stück 6.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>3909255</t>
+          <t>6869974</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot glutenfrei</t>
+          <t>Roland Knäckers Sesam &amp;amp; Chia</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-glutenfrei/p/3909255</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-sesam-chia/p/6869974</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E203" t="n">
         <v>5</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>1.80/100g</t>
+          <t>2.32/100g</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -14771,7 +14771,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -14786,55 +14786,55 @@
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot glutenfrei 2.70 Schweizer Franken</t>
+          <t>Roland Knäckers Sesam &amp;amp; Chia 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>['gluten_free', 'lactose_free']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>6869974</t>
+          <t>3909255</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Roland Knäckers Sesam &amp;amp; Chia</t>
+          <t>Schär Knusperbrot glutenfrei</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-sesam-chia/p/6869974</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-glutenfrei/p/3909255</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E204" t="n">
         <v>5</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>2.32/100g</t>
+          <t>1.80/100g</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -14844,7 +14844,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -14859,17 +14859,17 @@
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>Roland Knäckers Sesam &amp;amp; Chia 3.25 Schweizer Franken</t>
+          <t>Schär Knusperbrot glutenfrei 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -14938,31 +14938,31 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>6338746</t>
+          <t>6350020</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam Stange</t>
+          <t>Karma Mini Cracker Sesam Leinsaat</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam-stange/p/6338746</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E206" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -14971,12 +14971,12 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -14986,7 +14986,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -14996,42 +14996,46 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam Stange 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N206" t="inlineStr"/>
+          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>6350020</t>
+          <t>6338746</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat</t>
+          <t>Country Cracker Sesam Stange</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam-stange/p/6338746</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E207" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -15040,12 +15044,12 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -15055,7 +15059,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -15065,22 +15069,18 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N207" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Country Cracker Sesam Stange 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -15149,7 +15149,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -15222,7 +15222,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -15291,7 +15291,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -15360,7 +15360,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -15429,7 +15429,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -15498,7 +15498,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -15567,7 +15567,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -15636,7 +15636,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -15709,7 +15709,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -15782,7 +15782,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -15851,7 +15851,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -15920,7 +15920,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -15989,7 +15989,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -16062,7 +16062,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -16135,7 +16135,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -16204,45 +16204,45 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>6882168</t>
+          <t>6315330</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Leisi Butter-Kuchenteig</t>
+          <t>Old El Paso Tortilla Bowls Seasalt</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-butter-kuchenteig/p/6882168</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-bowls-seasalt/p/6315330</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E224" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>1.50/100g</t>
+          <t>2.43/100g</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -16252,7 +16252,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -16262,46 +16262,44 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>Leisi Butter-Kuchenteig 20% ab 2 Aktion 4.20 Schweizer Franken</t>
+          <t>Old El Paso Tortilla Bowls Seasalt 3.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>6315330</t>
+          <t>6962218</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla Bowls Seasalt</t>
+          <t>Old el Paso Wraps Classic</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-bowls-seasalt/p/6315330</t>
-        </is>
-      </c>
-      <c r="D225" t="n">
-        <v>21</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-wraps-classic/p/6962218</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
       <c r="E225" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -16310,12 +16308,12 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>1.63/100g</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -16325,7 +16323,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -16340,17 +16338,13 @@
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla Bowls Seasalt 3.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N225" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Old el Paso Wraps Classic 3.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -16419,45 +16413,45 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>5853824</t>
+          <t>6882168</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Schär Choco Muffins glutenfrei 4 Stück</t>
+          <t>Leisi Butter-Kuchenteig</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-choco-muffins-glutenfrei-4-stueck/p/5853824</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-butter-kuchenteig/p/6882168</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>2.04/100g</t>
+          <t>1.50/100g</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -16467,7 +16461,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -16477,22 +16471,22 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>Schär Choco Muffins glutenfrei 4 Stück 5.30 Schweizer Franken</t>
+          <t>Leisi Butter-Kuchenteig 20% ab 2 Aktion 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>['gluten_free', 'lactose_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -16565,43 +16559,45 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>6962218</t>
+          <t>3861388</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Old el Paso Wraps Classic</t>
+          <t>Klas Jufka Filoteig</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-wraps-classic/p/6962218</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/klas-jufka-filoteig/p/3861388</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>19</v>
+      </c>
       <c r="E229" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Klas</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>1.63/100g</t>
+          <t>0.44/100g</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -16611,7 +16607,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -16621,56 +16617,56 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>Old el Paso Wraps Classic 3.80 Schweizer Franken</t>
+          <t>Klas Jufka Filoteig 2.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>3861388</t>
+          <t>5853824</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Klas Jufka Filoteig</t>
+          <t>Schär Choco Muffins glutenfrei 4 Stück</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/klas-jufka-filoteig/p/3861388</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-choco-muffins-glutenfrei-4-stueck/p/5853824</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E230" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Klas</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>0.44/100g</t>
+          <t>2.04/100g</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -16680,7 +16676,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -16690,18 +16686,22 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>Klas Jufka Filoteig 2.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N230" t="inlineStr"/>
+          <t>Schär Choco Muffins glutenfrei 4 Stück 5.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -16768,7 +16768,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -16841,7 +16841,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -16914,7 +16914,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -16983,45 +16983,45 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>5722126</t>
+          <t>4265298</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
+          <t>Naturaplan Bio Mini Haselnussrollen</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-mini-haselnussrollen/p/4265298</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E235" t="n">
         <v>5</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>1.50/100g</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -17031,7 +17031,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -17041,60 +17041,56 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei 20% ab 2 Aktion 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N235" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Mini Haselnussrollen 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>4265298</t>
+          <t>5722126</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mini Haselnussrollen</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-mini-haselnussrollen/p/4265298</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E236" t="n">
         <v>5</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>1.50/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17104,7 +17100,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -17114,56 +17110,60 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mini Haselnussrollen 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N236" t="inlineStr"/>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei 20% ab 2 Aktion 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>4793918</t>
+          <t>4063481</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 10 Stück</t>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines-10-stueck/p/4793918</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>2.63/100g</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17173,7 +17173,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -17188,51 +17188,51 @@
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 10 Stück 2.80 Schweizer Franken</t>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>4063481</t>
+          <t>4967195</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
+          <t>Bonne Maman Financier Mandeln</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-financier-mandeln/p/4967195</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E238" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>2.63/100g</t>
+          <t>3.14/100g</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17242,7 +17242,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -17257,51 +17257,51 @@
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.95 Schweizer Franken</t>
+          <t>Bonne Maman Financier Mandeln 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>4967195</t>
+          <t>5722124</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Bonne Maman Financier Mandeln</t>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-financier-mandeln/p/4967195</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E239" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>3.14/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17311,7 +17311,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -17321,18 +17321,22 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
         </is>
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>Bonne Maman Financier Mandeln 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N239" t="inlineStr"/>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 20% ab 2 Aktion 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>['chilled', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -17405,29 +17409,31 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>6629583</t>
+          <t>6629343</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Marmor Cake</t>
+          <t>Schokoladen Cake</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/marmor-cake/p/6629583</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schokoladen-cake/p/6629343</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>3</v>
+      </c>
       <c r="E241" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -17466,37 +17472,35 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>Marmor Cake 6.20 Schweizer Franken</t>
+          <t>Schokoladen Cake 6.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>6629343</t>
+          <t>6629583</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Schokoladen Cake</t>
+          <t>Marmor Cake</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schokoladen-cake/p/6629343</t>
-        </is>
-      </c>
-      <c r="D242" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/marmor-cake/p/6629583</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr"/>
       <c r="E242" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -17535,51 +17539,51 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>Schokoladen Cake 6.20 Schweizer Franken</t>
+          <t>Marmor Cake 6.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>5722124</t>
+          <t>4793918</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
+          <t>St Michel Madeleines 10 Stück</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines-10-stueck/p/4793918</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E243" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -17589,7 +17593,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -17599,60 +17603,56 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 20% ab 2 Aktion 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N243" t="inlineStr">
-        <is>
-          <t>['chilled', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>St Michel Madeleines 10 Stück 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>5621833</t>
+          <t>5804223</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Mini Chococremecake</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mini-chococremecake/p/5621833</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E244" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>2.55/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17662,7 +17662,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -17672,42 +17672,46 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>Mini Chococremecake 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N244" t="inlineStr"/>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm 20% ab 2 Aktion 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>6387361</t>
+          <t>5621833</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Karma Snack Schwarzer Reis</t>
+          <t>Mini Chococremecake</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-schwarzer-reis/p/6387361</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mini-chococremecake/p/5621833</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E245" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -17716,12 +17720,12 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>2.44/100g</t>
+          <t>2.55/100g</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -17731,7 +17735,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -17741,60 +17745,56 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>Karma Snack Schwarzer Reis 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N245" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Mini Chococremecake 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>5804223</t>
+          <t>6387361</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
+          <t>Karma Snack Schwarzer Reis</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-schwarzer-reis/p/6387361</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E246" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>2.44/100g</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -17804,7 +17804,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -17814,22 +17814,22 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm 20% ab 2 Aktion 4.95 Schweizer Franken</t>
+          <t>Karma Snack Schwarzer Reis 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -17898,7 +17898,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -17967,45 +17967,45 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>3958888</t>
+          <t>4490655</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines 17 Stück</t>
+          <t>Brossard Zwieback Honig</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-17-stueck/p/3958888</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/brossard-zwieback-honig/p/4490655</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Brossard</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>1.31/100g</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18015,7 +18015,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -18025,56 +18025,56 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines 17 Stück 2.80 Schweizer Franken</t>
+          <t>Brossard Zwieback Honig 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>4490655</t>
+          <t>3958888</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Brossard Zwieback Honig</t>
+          <t>Prix Garantie Madeleines 17 Stück</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/brossard-zwieback-honig/p/4490655</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-17-stueck/p/3958888</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Brossard</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>1.31/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -18084,7 +18084,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -18094,18 +18094,18 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>Brossard Zwieback Honig 4.60 Schweizer Franken</t>
+          <t>Prix Garantie Madeleines 17 Stück 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -18174,7 +18174,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -18247,7 +18247,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -18316,7 +18316,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -18385,7 +18385,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -18454,7 +18454,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -18527,45 +18527,45 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>6313852</t>
+          <t>6581130</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Guezli Fruits</t>
+          <t>Dona Pita Brot</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-guezli-fruits/p/6313852</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/dona-pita-brot/p/6581130</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E257" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Dona</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>0.57/100g</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18575,7 +18575,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -18585,56 +18585,56 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Guezli Fruits 2.80 Schweizer Franken</t>
+          <t>Dona Pita Brot 2.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>6581130</t>
+          <t>5653528</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Dona Pita Brot</t>
+          <t>Betty Bossi Tortenboden hell</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/dona-pita-brot/p/6581130</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-tortenboden-hell/p/5653528</t>
         </is>
       </c>
       <c r="D258" t="n">
         <v>12</v>
       </c>
       <c r="E258" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Dona</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>0.57/100g</t>
+          <t>1.16/100g</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18644,7 +18644,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -18654,56 +18654,60 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>Dona Pita Brot 2.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N258" t="inlineStr"/>
+          <t>Betty Bossi Tortenboden hell 3.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>5653528</t>
+          <t>6313852</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Betty Bossi Tortenboden hell</t>
+          <t>Roland Petite Pause Guezli Fruits</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-tortenboden-hell/p/5653528</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-guezli-fruits/p/6313852</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E259" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>1.16/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -18713,7 +18717,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -18723,60 +18727,56 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
         </is>
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>Betty Bossi Tortenboden hell 3.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N259" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Roland Petite Pause Guezli Fruits 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>6150312</t>
+          <t>6345853</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>St.Michel Brownies blanc Mini</t>
+          <t>Indian Delight Pappadums</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-brownies-blanc-mini/p/6150312</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-pappadums/p/6345853</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E260" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>3.60/100g</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -18786,7 +18786,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -18796,56 +18796,56 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>St.Michel Brownies blanc Mini 3.95 Schweizer Franken</t>
+          <t>Indian Delight Pappadums 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>6345853</t>
+          <t>6150312</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Indian Delight Pappadums</t>
+          <t>St.Michel Brownies blanc Mini</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-pappadums/p/6345853</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-brownies-blanc-mini/p/6150312</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E261" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>3.60/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -18855,7 +18855,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -18865,35 +18865,35 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>Indian Delight Pappadums 3.60 Schweizer Franken</t>
+          <t>St.Michel Brownies blanc Mini 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>6729406</t>
+          <t>7028474</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Roland Sport Banana Cranberry</t>
+          <t>Le Pain des fleurs Bio Quinoa</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/roland-sport-banana-cranberry/p/6729406</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-quinoa/p/7028474</t>
         </is>
       </c>
       <c r="D262" t="n">
@@ -18904,17 +18904,17 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>3.56/100g</t>
+          <t>2.93/100g</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -18924,7 +18924,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -18934,18 +18934,22 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>Roland Sport Banana Cranberry 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N262" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Quinoa 20% ab 2 Aktion 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -19018,24 +19022,24 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>7028474</t>
+          <t>6729406</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Quinoa</t>
+          <t>Roland Sport Banana Cranberry</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-quinoa/p/7028474</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/roland-sport-banana-cranberry/p/6729406</t>
         </is>
       </c>
       <c r="D264" t="n">
@@ -19046,17 +19050,17 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>2.93/100g</t>
+          <t>3.56/100g</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -19066,7 +19070,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -19076,22 +19080,18 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Quinoa 20% ab 2 Aktion 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N264" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Roland Sport Banana Cranberry 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -19160,7 +19160,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -19227,7 +19227,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -19298,7 +19298,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -19367,7 +19367,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -19436,7 +19436,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -19509,7 +19509,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -19578,29 +19578,31 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>6832049</t>
+          <t>6528421</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren</t>
+          <t>Prix Garantie Madeleines choco</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-joghurt-erdbeeren/p/6832049</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-choco/p/6528421</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>4</v>
+      </c>
       <c r="E272" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -19609,12 +19611,12 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>1.95/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19624,7 +19626,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -19634,46 +19636,40 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren 20% ab 2 Aktion 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N272" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Madeleines choco 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>6528421</t>
+          <t>6832049</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines choco</t>
+          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-choco/p/6528421</t>
-        </is>
-      </c>
-      <c r="D273" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-joghurt-erdbeeren/p/6832049</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr"/>
       <c r="E273" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -19682,12 +19678,12 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>1.95/100g</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -19697,7 +19693,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -19707,56 +19703,60 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines choco 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N273" t="inlineStr"/>
+          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren 20% ab 2 Aktion 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>6680943</t>
+          <t>4234829</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück</t>
+          <t>Schär Wraps glutenfrei 2x80g</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/schaer-wraps-glutenfrei-2x80g/p/4234829</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E274" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>3.09/100g</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -19766,7 +19766,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -19776,56 +19776,60 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück 4.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N274" t="inlineStr"/>
+          <t>Schär Wraps glutenfrei 2x80g 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>6729458</t>
+          <t>6680943</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Roland Sport High Protein Choco</t>
+          <t>Pasquier Pancakes Choco 10 Stück</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/roland-sport-high-protein-choco/p/6729458</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>3.56/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -19835,7 +19839,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -19845,56 +19849,56 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>Roland Sport High Protein Choco 4.80 Schweizer Franken</t>
+          <t>Pasquier Pancakes Choco 10 Stück 4.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>4234829</t>
+          <t>6729458</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Schär Wraps glutenfrei 2x80g</t>
+          <t>Roland Sport High Protein Choco</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/schaer-wraps-glutenfrei-2x80g/p/4234829</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/roland-sport-high-protein-choco/p/6729458</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E276" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>3.09/100g</t>
+          <t>3.56/100g</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -19904,7 +19908,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -19914,22 +19918,18 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>Schär Wraps glutenfrei 2x80g 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N276" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Roland Sport High Protein Choco 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -19996,7 +19996,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -20063,45 +20063,45 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>4092628</t>
+          <t>3845685</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Schär Frischback Mini-Baguette 2x75g</t>
+          <t>Slow Food Roggenbrot</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-mini-baguette-2x75g/p/4092628</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/slow-food-roggenbrot/p/3845685</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E279" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>1.97/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20111,7 +20111,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -20121,56 +20121,56 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>Schär Frischback Mini-Baguette 2x75g 2.95 Schweizer Franken</t>
+          <t>Slow Food Roggenbrot 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>3845685</t>
+          <t>4092628</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Slow Food Roggenbrot</t>
+          <t>Schär Frischback Mini-Baguette 2x75g</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/slow-food-roggenbrot/p/3845685</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-mini-baguette-2x75g/p/4092628</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E280" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>1.97/100g</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20180,7 +20180,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -20190,18 +20190,18 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>Slow Food Roggenbrot 4.50 Schweizer Franken</t>
+          <t>Schär Frischback Mini-Baguette 2x75g 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -20270,7 +20270,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -20339,7 +20339,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -20408,45 +20408,45 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>6579811</t>
+          <t>4967215</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas</t>
+          <t>Bonne Maman Madeleine 7 Stück</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E284" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>INES ROSALES</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>2.56/100g</t>
+          <t>2.26/100g</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20456,7 +20456,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -20471,49 +20471,51 @@
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
+          <t>Bonne Maman Madeleine 7 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>7038624</t>
+          <t>6579811</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande</t>
+          <t>Ines Rosales Süsse Tortas</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>6</v>
+      </c>
       <c r="E285" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>INES ROSALES</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>2.56/100g</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20523,7 +20525,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -20533,35 +20535,35 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
+          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>4005123</t>
+          <t>7038624</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
+          <t>Riduto Crisp Bread Rande</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
         </is>
       </c>
       <c r="D286" t="inlineStr"/>
@@ -20570,17 +20572,17 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>2.21/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20590,7 +20592,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -20600,56 +20602,54 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück 5.20 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>6980179</t>
+          <t>4005123</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth</t>
+          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
-        </is>
-      </c>
-      <c r="D287" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr"/>
       <c r="E287" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>2.21/100g</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -20659,7 +20659,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -20669,46 +20669,42 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth 20% ab 2 Aktion 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N287" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Bonne Maman Muffins Schokolade 16 Stück 5.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>5910012</t>
+          <t>6980179</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Country Cracker Nature</t>
+          <t>Karma Saaten Cracker Amaranth</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature/p/5910012</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E288" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -20717,12 +20713,12 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>1.51/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -20732,7 +20728,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -20747,13 +20743,17 @@
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>Country Cracker Nature 3.45 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N288" t="inlineStr"/>
+          <t>Karma Saaten Cracker Amaranth 20% ab 2 Aktion 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -20822,7 +20822,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -20891,7 +20891,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -20964,45 +20964,45 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>4967215</t>
+          <t>5910012</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück</t>
+          <t>Country Cracker Nature</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature/p/5910012</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E292" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>2.26/100g</t>
+          <t>1.51/100g</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21012,7 +21012,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -21022,18 +21022,18 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück 3.95 Schweizer Franken</t>
+          <t>Country Cracker Nature 3.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -21106,7 +21106,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -21175,7 +21175,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -21244,7 +21244,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -21317,7 +21317,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -21386,45 +21386,45 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>3040214</t>
+          <t>3570059</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Bündner Nusstorte</t>
+          <t>Croustipâte Brick-Teigblätter 8 Stück</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/buendner-nusstorte/p/3040214</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/croustipate-brick-teigblaetter-8-stueck/p/3570059</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E298" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Croustipâte</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>1.70/100g</t>
+          <t>2.43/100g</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21434,7 +21434,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -21444,56 +21444,58 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>Bündner Nusstorte 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N298" t="inlineStr"/>
+          <t>Croustipâte Brick-Teigblätter 8 Stück 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N298" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>3570059</t>
+          <t>6857774</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Croustipâte Brick-Teigblätter 8 Stück</t>
+          <t>Dar-Vida Nature</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/croustipate-brick-teigblaetter-8-stueck/p/3570059</t>
-        </is>
-      </c>
-      <c r="D299" t="n">
-        <v>5</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr"/>
       <c r="E299" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>Croustipâte</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>2.40/100g</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21503,7 +21505,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -21513,58 +21515,60 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>Croustipâte Brick-Teigblätter 8 Stück 3.30 Schweizer Franken</t>
+          <t>Dar-Vida Nature 1.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>6857774</t>
+          <t>3040214</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature</t>
+          <t>Bündner Nusstorte</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/buendner-nusstorte/p/3040214</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>14</v>
+      </c>
       <c r="E300" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>2.40/100g</t>
+          <t>1.70/100g</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21574,7 +21578,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -21584,60 +21588,56 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature 1.00 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N300" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Bündner Nusstorte 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>6630295</t>
+          <t>6603471</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E301" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>1.75/100g</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -21647,7 +21647,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -21657,56 +21657,56 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco 3.75 Schweizer Franken</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>6603471</t>
+          <t>6630295</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
+          <t>Country Cracker Banane-Choco</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E302" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>1.75/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -21716,7 +21716,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -21726,18 +21726,18 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
+          <t>Country Cracker Banane-Choco 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -21806,45 +21806,45 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>5962343</t>
+          <t>3465424</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
+          <t>Hug Tartelettes-Bödeli 175G</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E304" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Veganz</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>5.48/100g</t>
+          <t>2.17/100g</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -21854,7 +21854,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -21864,60 +21864,56 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N304" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>3465424</t>
+          <t>5962343</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G</t>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E305" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Veganz</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>2.17/100g</t>
+          <t>5.48/100g</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -21927,7 +21923,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -21937,18 +21933,22 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N305" t="inlineStr"/>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -22017,7 +22017,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -22088,7 +22088,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -22157,7 +22157,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -22226,7 +22226,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -22299,7 +22299,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -22372,7 +22372,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -22445,7 +22445,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -22514,7 +22514,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -22583,7 +22583,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -22652,7 +22652,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -22721,7 +22721,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -22794,7 +22794,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -22863,7 +22863,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -22932,43 +22932,45 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>6783372</t>
+          <t>6284830</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit</t>
+          <t>Leisi Kuchenteig eckig ausgewallt</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>1</v>
+      </c>
       <c r="E320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>2.03/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -22978,7 +22980,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -22988,56 +22990,58 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit 7.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N320" t="inlineStr"/>
+          <t>Leisi Kuchenteig eckig ausgewallt 20% ab 2 Aktion 5.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N320" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>7091313</t>
+          <t>6783372</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
+          <t>Old el Paso BBQ Pocket Kit</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
-        </is>
-      </c>
-      <c r="D321" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr"/>
       <c r="E321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>Layenberger</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>4.80/100g</t>
+          <t>2.03/100g</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23047,7 +23051,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -23057,56 +23061,56 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion 3.60 Schweizer Franken</t>
+          <t>Old el Paso BBQ Pocket Kit 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>6284830</t>
+          <t>7091313</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt</t>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E322" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Layenberger</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>4.80/100g</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -23116,7 +23120,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -23126,22 +23130,18 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt 20% ab 2 Aktion 5.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N322" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -23214,7 +23214,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -23281,7 +23281,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -23350,7 +23350,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -23419,7 +23419,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -23488,7 +23488,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -23561,7 +23561,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -23630,7 +23630,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -23699,7 +23699,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -23766,7 +23766,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
@@ -23839,7 +23839,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-02-07 12:56:48</t>
+          <t>2023-02-07 20:49:42</t>
         </is>
       </c>
     </row>
